--- a/Udemy Free (tr) - (recommended).xlsx
+++ b/Udemy Free (tr) - (recommended).xlsx
@@ -49,12 +49,12 @@
     <t>https://www.udemy.com/course/excel-dizi-formulleri/</t>
   </si>
   <si>
+    <t>https://www.udemy.com/course/gokhanmuharremoglu/</t>
+  </si>
+  <si>
     <t>https://www.udemy.com/course/temel-tasarim-kurallari/</t>
   </si>
   <si>
-    <t>https://www.udemy.com/course/gokhanmuharremoglu/</t>
-  </si>
-  <si>
     <t>https://www.udemy.com/course/temel-seviye-network-egitimi-bilgisayar-aglarna-ilk-adm/</t>
   </si>
   <si>
@@ -76,12 +76,12 @@
     <t>https://www.udemy.com/course/adan-zye-bootstrap-4-egitimi/</t>
   </si>
   <si>
+    <t>https://www.udemy.com/course/autocad-2020-ile-tasarm-ve-cizim-mantg-uygulamalar/</t>
+  </si>
+  <si>
     <t>https://www.udemy.com/course/agile-yazilim-gelistirme/</t>
   </si>
   <si>
-    <t>https://www.udemy.com/course/autocad-2020-ile-tasarm-ve-cizim-mantg-uygulamalar/</t>
-  </si>
-  <si>
     <t>https://www.udemy.com/course/zindelik-ve-canllk-icin-antrenman-egzersiz-plan/</t>
   </si>
   <si>
@@ -109,6 +109,9 @@
     <t>https://www.udemy.com/course/dnsinternetin/</t>
   </si>
   <si>
+    <t>https://www.udemy.com/course/illustrator_ogren/</t>
+  </si>
+  <si>
     <t>https://www.udemy.com/course/baglamakursu_tanerdemiralp/</t>
   </si>
   <si>
@@ -118,9 +121,6 @@
     <t>https://www.udemy.com/course/real-time-mesajlasma-uygulamas/</t>
   </si>
   <si>
-    <t>https://www.udemy.com/course/illustrator_ogren/</t>
-  </si>
-  <si>
     <t>https://www.udemy.com/course/esri-turkiye-konumun-gucu/</t>
   </si>
   <si>
@@ -139,24 +139,24 @@
     <t>https://www.udemy.com/course/1-saatte-kendi-messenger-botunuzu-olusturun/</t>
   </si>
   <si>
+    <t>https://www.udemy.com/course/sfrdan-macbook-pages-ogrenin/</t>
+  </si>
+  <si>
     <t>https://www.udemy.com/course/ka101_projesi_nasil_yazilir/</t>
   </si>
   <si>
-    <t>https://www.udemy.com/course/sfrdan-macbook-pages-ogrenin/</t>
-  </si>
-  <si>
     <t>Basitten İleriye Excel</t>
   </si>
   <si>
     <t>Excel Dizi Formülleri</t>
   </si>
   <si>
+    <t>Siber Güvenlik -Gökhan Muharremoğlu ile Etik Hacking/Savunma</t>
+  </si>
+  <si>
     <t>Temel Tasarım Kuralları</t>
   </si>
   <si>
-    <t>Siber Güvenlik -Gökhan Muharremoğlu ile Etik Hacking/Savunma</t>
-  </si>
-  <si>
     <t>Temel Seviye Network Eğitimi | Bilgisayar Ağlarına İlk Adım</t>
   </si>
   <si>
@@ -178,12 +178,12 @@
     <t>A'dan Z'ye Bootstrap 4</t>
   </si>
   <si>
+    <t>AutoCAD 2020 ile Temel Çizim Uygulamaları</t>
+  </si>
+  <si>
     <t>Agile Yazılım Geliştirme, Proje ve İnsan Yönetimi Yaklaşımı</t>
   </si>
   <si>
-    <t>AutoCAD 2020 ile Temel Çizim Uygulamaları</t>
-  </si>
-  <si>
     <t>Zindelik ve Canlılık İçin Antrenman &amp; Egzersiz Planı</t>
   </si>
   <si>
@@ -211,6 +211,9 @@
     <t>DNS ve İnternetin Sırları Eğitimi</t>
   </si>
   <si>
+    <t>Web ve Dijital Tasarım Kültürü</t>
+  </si>
+  <si>
     <t>Bağlama Eğitimi Özel Seri</t>
   </si>
   <si>
@@ -220,9 +223,6 @@
     <t>Real Time Mesajlaşma  Uygulaması</t>
   </si>
   <si>
-    <t>Web ve Dijital Tasarım Kültürü</t>
-  </si>
-  <si>
     <t>Konumun Gücü</t>
   </si>
   <si>
@@ -241,24 +241,24 @@
     <t>1 Saatte Kendi Messenger Bot'unuzu Oluşturun! (no coding)</t>
   </si>
   <si>
+    <t>Sıfırdan Macbook Pages Öğrenin</t>
+  </si>
+  <si>
     <t>Erasmus+ KA101 Projesi Nasıl Yazılır</t>
   </si>
   <si>
-    <t>Sıfırdan Macbook Pages Öğrenin</t>
-  </si>
-  <si>
     <t>Projeler ile Excel Öğreneceğiz</t>
   </si>
   <si>
     <t>İleri Düzey Excel Fonksiyonlarının Dizi Yöntemleri ile Kullanımı</t>
   </si>
   <si>
+    <t>Merkalısına Siber Güvenlik</t>
+  </si>
+  <si>
     <t>İyi bir tasarım yapmak için bilmeniz gereken 4 temel prensip bu eğitim setinde anlatılmıştır.</t>
   </si>
   <si>
-    <t>Merkalısına Siber Güvenlik</t>
-  </si>
-  <si>
     <t>Bilgisayar ağlarına, IP, Subnetting gibi kavramlara hakim olmak için atacağınız ilk adım.</t>
   </si>
   <si>
@@ -280,12 +280,12 @@
     <t>Bootstrap 4'ü baştan sona öğrenerek ekran boyutuna duyarlı web sayfaları oluşturun.</t>
   </si>
   <si>
+    <t>AutoCAD 2020 ile Çizim Uygulamaları ve Tasarım Mantığı</t>
+  </si>
+  <si>
     <t>Agile(Çevik) yazılım geliştirme mantalitesini ve bunun proje ve insan yönetimine(Scrum vb.) etkilerini öğrenin</t>
   </si>
   <si>
-    <t>AutoCAD 2020 ile Çizim Uygulamaları ve Tasarım Mantığı</t>
-  </si>
-  <si>
     <t>Daha zinde ve daha canlı hissetmek için yapmanız gereken haftalık antrenman planı.</t>
   </si>
   <si>
@@ -313,6 +313,9 @@
     <t>İnterneti  nasıl güvenli ve etkili kullanabileceğinizi sadece 1 saatte öğrenin. İnternetin Sırları burada saklı</t>
   </si>
   <si>
+    <t>Web ve Dijital Tasarım Alanına Ait Kullanılan Terimler ve Teknik Bilgiler</t>
+  </si>
+  <si>
     <t>Taner Demiralp ile Bağlama Eğitim Serisi</t>
   </si>
   <si>
@@ -322,9 +325,6 @@
     <t>Karşılıklı mesajlaşma uygulaması</t>
   </si>
   <si>
-    <t>Web ve Dijital Tasarım Alanına Ait Kullanılan Terimler ve Teknik Bilgiler</t>
-  </si>
-  <si>
     <t>Staj nedir? Nerelerde Staj Yapılabilir? Staj yeri nasıl bulunur? Staj defteri nasıl eksiksiz hazırlanır?</t>
   </si>
   <si>
@@ -340,24 +340,24 @@
     <t>Kodlama bilgisine ihtiyaç olmadan, kendi chatbot'unuzu oluşturun!</t>
   </si>
   <si>
+    <t>Macbook aldınız ve Pages yazılımını kullanmak istiyorsunuz. Başlangıç için doğru yerdesiniz.</t>
+  </si>
+  <si>
     <t>KA101 Personel Hareketliliği Proje Tasarımı ve Proje Başvuru formu yazımı</t>
   </si>
   <si>
-    <t>Macbook aldınız ve Pages yazılımını kullanmak istiyorsunuz. Başlangıç için doğru yerdesiniz.</t>
-  </si>
-  <si>
     <t>Muhammet Candaş</t>
   </si>
   <si>
     <t>M. Mustafa BOLAT</t>
   </si>
   <si>
+    <t>Gökhan Muharremoğlu</t>
+  </si>
+  <si>
     <t>Hakan Çamoğlu, Vidobu Eğitim</t>
   </si>
   <si>
-    <t>Gökhan Muharremoğlu</t>
-  </si>
-  <si>
     <t>Celal Gündoğdu</t>
   </si>
   <si>
@@ -376,12 +376,12 @@
     <t>Bootstrap Eğitimi</t>
   </si>
   <si>
+    <t>Mühendis Eğitim</t>
+  </si>
+  <si>
     <t>Mucahit Kurt</t>
   </si>
   <si>
-    <t>Mühendis Eğitim</t>
-  </si>
-  <si>
     <t>Umut Varol</t>
   </si>
   <si>
@@ -409,6 +409,9 @@
     <t>CB Academy</t>
   </si>
   <si>
+    <t>Mustafa Hikmet Aydıngüler</t>
+  </si>
+  <si>
     <t>Taner Demiralp</t>
   </si>
   <si>
@@ -418,9 +421,6 @@
     <t>Murat Koç</t>
   </si>
   <si>
-    <t>Mustafa Hikmet Aydıngüler</t>
-  </si>
-  <si>
     <t>Esri Türkiye</t>
   </si>
   <si>
@@ -436,12 +436,12 @@
     <t>halis erdem komec</t>
   </si>
   <si>
+    <t>Mustafa Şeper</t>
+  </si>
+  <si>
     <t>Fatih Kiraz</t>
   </si>
   <si>
-    <t>Mustafa Şeper</t>
-  </si>
-  <si>
     <t>Puan: 4,5 / 5</t>
   </si>
   <si>
@@ -454,12 +454,12 @@
     <t>Puan: 4,6 / 5</t>
   </si>
   <si>
+    <t>Puan: 4,8 / 5</t>
+  </si>
+  <si>
     <t>Puan: 4,4 / 5</t>
   </si>
   <si>
-    <t>Puan: 4,8 / 5</t>
-  </si>
-  <si>
     <t>Puan: 4,9 / 5</t>
   </si>
   <si>
@@ -487,12 +487,12 @@
     <t>4,6</t>
   </si>
   <si>
+    <t>4,8</t>
+  </si>
+  <si>
     <t>4,4</t>
   </si>
   <si>
-    <t>4,8</t>
-  </si>
-  <si>
     <t>4,9</t>
   </si>
   <si>
@@ -547,10 +547,10 @@
     <t>9 ders</t>
   </si>
   <si>
+    <t>39 ders</t>
+  </si>
+  <si>
     <t>15 ders</t>
-  </si>
-  <si>
-    <t>39 ders</t>
   </si>
   <si>
     <t>10 ders</t>
@@ -1091,13 +1091,13 @@
         <v>112</v>
       </c>
       <c r="E4" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F4" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G4" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H4" t="s">
         <v>177</v>
@@ -1120,13 +1120,13 @@
         <v>113</v>
       </c>
       <c r="E5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H5" t="s">
         <v>178</v>
@@ -1207,10 +1207,10 @@
         <v>116</v>
       </c>
       <c r="E8" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="F8" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="G8" t="s">
         <v>166</v>
@@ -1236,10 +1236,10 @@
         <v>117</v>
       </c>
       <c r="E9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G9" t="s">
         <v>168</v>
@@ -1291,7 +1291,7 @@
         <v>86</v>
       </c>
       <c r="D11" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E11" t="s">
         <v>145</v>
@@ -1352,16 +1352,16 @@
         <v>120</v>
       </c>
       <c r="E13" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F13" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G13" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="H13" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="I13" t="s">
         <v>196</v>
@@ -1381,16 +1381,16 @@
         <v>121</v>
       </c>
       <c r="E14" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F14" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="G14" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="H14" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="I14" t="s">
         <v>196</v>
@@ -1410,10 +1410,10 @@
         <v>122</v>
       </c>
       <c r="E15" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="F15" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="G15" t="s">
         <v>165</v>
@@ -1497,10 +1497,10 @@
         <v>125</v>
       </c>
       <c r="E18" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="F18" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="G18" t="s">
         <v>168</v>
@@ -1613,10 +1613,10 @@
         <v>129</v>
       </c>
       <c r="E22" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F22" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G22" t="s">
         <v>170</v>
@@ -1642,10 +1642,10 @@
         <v>130</v>
       </c>
       <c r="E23" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F23" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G23" t="s">
         <v>165</v>
@@ -1671,19 +1671,19 @@
         <v>131</v>
       </c>
       <c r="E24" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="F24" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="G24" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="H24" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="I24" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1700,19 +1700,19 @@
         <v>132</v>
       </c>
       <c r="E25" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F25" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G25" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="H25" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="I25" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1729,19 +1729,19 @@
         <v>133</v>
       </c>
       <c r="E26" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="F26" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="G26" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="H26" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="I26" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1764,10 +1764,10 @@
         <v>153</v>
       </c>
       <c r="G27" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="H27" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="I27" t="s">
         <v>199</v>
@@ -1961,19 +1961,19 @@
         <v>140</v>
       </c>
       <c r="E34" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="F34" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="G34" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="H34" t="s">
-        <v>176</v>
+        <v>193</v>
       </c>
       <c r="I34" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1990,19 +1990,19 @@
         <v>141</v>
       </c>
       <c r="E35" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="F35" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="G35" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="H35" t="s">
-        <v>193</v>
+        <v>176</v>
       </c>
       <c r="I35" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>
